--- a/BRD/aula21-3/tabela-dados.xlsx
+++ b/BRD/aula21-3/tabela-dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{616AA854-7C2E-433D-AEAE-FB9483F7D307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE1F81-F9B3-43BA-B0AD-B61D1F0924D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{AF0B58FA-36D0-418B-B384-E06AAE4F7AB1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="77">
   <si>
     <t>ENTIDADES</t>
   </si>
@@ -251,13 +251,28 @@
   </si>
   <si>
     <t>NOMENCLATURA #CHAVE-PRIMÁRIA</t>
+  </si>
+  <si>
+    <t>T_SIP_DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>T_SIP_PROJETO</t>
+  </si>
+  <si>
+    <t>T_SIP_FUNCIONARIO</t>
+  </si>
+  <si>
+    <t>T_SIP_DEPENDENTE</t>
+  </si>
+  <si>
+    <t>T_SIP_IMPLANTAÇÃO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +292,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -604,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -613,7 +636,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -696,6 +718,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1016,13 +1040,13 @@
   <dimension ref="B2:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
@@ -1034,399 +1058,409 @@
       <c r="C2"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="33" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="33" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="38" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="38" t="s">
+      <c r="F7" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="F8" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="37" t="s">
+      <c r="F9" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="42" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="38" t="s">
+      <c r="F10" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="38" t="s">
+      <c r="F11" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="38" t="s">
+      <c r="F12" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="38" t="s">
+      <c r="F13" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="38" t="s">
+      <c r="F14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="44" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="39" t="s">
+      <c r="F15" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="41" t="s">
+      <c r="F16" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="42" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="43" t="s">
+      <c r="F17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="45" t="s">
+      <c r="F18" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="40" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="41" t="s">
+      <c r="F19" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="42" t="s">
+      <c r="D20" s="12"/>
+      <c r="E20" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="43" t="s">
+      <c r="F20" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="42" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="43" t="s">
+      <c r="F21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="44" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="40" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="41" t="s">
+      <c r="F23" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="7"/>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="42" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="43" t="s">
+      <c r="F24" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="7"/>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="43" t="s">
+      <c r="F25" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="42" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="43" t="s">
+      <c r="F26" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="44" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="44" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1466,249 +1500,249 @@
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="13"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="24" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="13"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="13"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="22" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="6"/>
+      <c r="C30" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="7"/>
-      <c r="C31" s="28" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="13"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="13"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="33" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="18"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="33" t="s">
+      <c r="B36" s="6"/>
+      <c r="C36" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
